--- a/Plainview Report_2017-11-24A.xlsx
+++ b/Plainview Report_2017-11-24A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="17955" windowHeight="10710" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="375" windowWidth="17955" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="ASPReport" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
   <si>
     <t>Week Of</t>
   </si>
@@ -231,12 +231,6 @@
     <t>12/03/2018</t>
   </si>
   <si>
-    <t>12/10/2018</t>
-  </si>
-  <si>
-    <t>12/17/2018</t>
-  </si>
-  <si>
     <t>End</t>
   </si>
   <si>
@@ -249,10 +243,31 @@
     <t>Pay Feb 2nd</t>
   </si>
   <si>
-    <t>12/24/2018</t>
+    <t>12/01/2017</t>
   </si>
   <si>
-    <t>12/31/2018</t>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Pay week Jan 8-12</t>
   </si>
 </sst>
 </file>
@@ -263,7 +278,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mmm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="yyyy/mm/dd\ ddd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ ddd"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -1002,7 +1017,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,49 +1303,19 @@
     <xf numFmtId="0" fontId="23" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="39" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
@@ -1357,6 +1342,42 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="44" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="39" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,32 +1428,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1633,8 +1629,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1680,8 +1676,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1727,8 +1723,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1774,8 +1770,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1821,8 +1817,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1868,8 +1864,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1915,8 +1911,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1962,8 +1958,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2009,8 +2005,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2056,8 +2052,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2103,8 +2099,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2150,8 +2146,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2197,8 +2193,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2244,8 +2240,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2291,8 +2287,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2338,8 +2334,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2666,20 +2662,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AC55"/>
+  <dimension ref="B1:AC57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD46"/>
+      <selection pane="bottomRight" activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="56" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" style="56" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="56" bestFit="1" customWidth="1"/>
@@ -2709,11 +2705,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
     </row>
     <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
@@ -2729,11 +2725,11 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="86"/>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
       <c r="N2" s="23" t="s">
         <v>19</v>
       </c>
@@ -2767,63 +2763,63 @@
       <c r="X2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="107" t="s">
+      <c r="Y2" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="109"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="126"/>
     </row>
     <row r="3" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="56">
         <f>SUMPRODUCT(C5:C499)</f>
-        <v>1327.5</v>
+        <v>1417.5</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="28">
         <f>COUNTIF(L5:L3201,0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="18">
         <f>SUMPRODUCT(N5:N499)</f>
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="O3" s="24">
         <f>SUMPRODUCT(O5:O499)</f>
-        <v>105005.24999999999</v>
+        <v>112124.24999999999</v>
       </c>
       <c r="P3" s="25">
         <f>SUMPRODUCT(P5:P499)</f>
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="Q3" s="41">
         <f>SUMPRODUCT(Q5:Q499)</f>
-        <v>104561.24999999999</v>
+        <v>111644.24999999999</v>
       </c>
       <c r="R3" s="25"/>
       <c r="S3" s="100">
         <f>SUMPRODUCT(S5:S499)</f>
-        <v>89789.999999999985</v>
+        <v>101606.99999999999</v>
       </c>
       <c r="T3" s="50"/>
       <c r="U3" s="48">
         <f>SUMPRODUCT(U5:U499)</f>
-        <v>89790</v>
+        <v>101607</v>
       </c>
       <c r="V3" s="51"/>
       <c r="W3" s="52">
         <f>U3-Q3</f>
-        <v>-14771.249999999985</v>
+        <v>-10037.249999999985</v>
       </c>
       <c r="X3" s="61"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="112"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="129"/>
     </row>
     <row r="4" spans="2:29" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
@@ -2884,7 +2880,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="79">
-        <f t="shared" ref="C5:C35" si="0">SUM(D5:J5)</f>
+        <f t="shared" ref="C5:C41" si="0">SUM(D5:J5)</f>
         <v>22.5</v>
       </c>
       <c r="D5" s="90">
@@ -5409,7 +5405,7 @@
         <v>57</v>
       </c>
       <c r="C36" s="79">
-        <f t="shared" ref="C36:C38" si="19">SUM(D36:J36)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D36" s="93">
@@ -5455,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="41">
-        <f t="shared" ref="Q36:Q37" si="20">O36-P36</f>
+        <f t="shared" ref="Q36:Q37" si="19">O36-P36</f>
         <v>2361</v>
       </c>
       <c r="R36" s="35">
@@ -5463,7 +5459,7 @@
         <v>75611.999999999985</v>
       </c>
       <c r="S36" s="101">
-        <f t="shared" ref="S36:S49" si="21">Q36*L36</f>
+        <f t="shared" ref="S36:S49" si="20">Q36*L36</f>
         <v>2361</v>
       </c>
       <c r="T36" s="50"/>
@@ -5473,7 +5469,7 @@
         <v>64388.25</v>
       </c>
       <c r="W36" s="49">
-        <f t="shared" ref="W36" si="22">V36-R36</f>
+        <f t="shared" ref="W36" si="21">V36-R36</f>
         <v>-11223.749999999985</v>
       </c>
       <c r="X36" s="80"/>
@@ -5488,7 +5484,7 @@
         <v>58</v>
       </c>
       <c r="C37" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="D37" s="93">
@@ -5534,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="R37" s="35">
@@ -5542,7 +5538,7 @@
         <v>78566.249999999985</v>
       </c>
       <c r="S37" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="T37" s="50">
@@ -5556,7 +5552,7 @@
         <v>73251</v>
       </c>
       <c r="W37" s="49">
-        <f t="shared" ref="W37:W43" si="23">V37-R37</f>
+        <f t="shared" ref="W37:W43" si="22">V37-R37</f>
         <v>-5315.2499999999854</v>
       </c>
       <c r="X37" s="80"/>
@@ -5577,7 +5573,7 @@
         <v>59</v>
       </c>
       <c r="C38" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="D38" s="93">
@@ -5616,14 +5612,14 @@
         <v>5</v>
       </c>
       <c r="O38" s="33">
-        <f t="shared" ref="O38" si="24">(C38*70)*1.13</f>
+        <f t="shared" ref="O38" si="23">(C38*70)*1.13</f>
         <v>2966.2499999999995</v>
       </c>
       <c r="P38" s="34">
         <v>12</v>
       </c>
       <c r="Q38" s="41">
-        <f t="shared" ref="Q38" si="25">O38-P38</f>
+        <f t="shared" ref="Q38" si="24">O38-P38</f>
         <v>2954.2499999999995</v>
       </c>
       <c r="R38" s="35">
@@ -5631,7 +5627,7 @@
         <v>81520.499999999985</v>
       </c>
       <c r="S38" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="T38" s="50"/>
@@ -5641,7 +5637,7 @@
         <v>73251</v>
       </c>
       <c r="W38" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-8269.4999999999854</v>
       </c>
       <c r="X38" s="80"/>
@@ -5656,7 +5652,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="79">
-        <f>SUM(D39:J39)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D39" s="93">
@@ -5695,14 +5691,14 @@
         <v>2</v>
       </c>
       <c r="O39" s="33">
-        <f t="shared" ref="O39:O43" si="26">(C39*70)*1.13</f>
+        <f t="shared" ref="O39:O43" si="25">(C39*70)*1.13</f>
         <v>1186.5</v>
       </c>
       <c r="P39" s="34">
         <v>12</v>
       </c>
       <c r="Q39" s="41">
-        <f t="shared" ref="Q39:Q43" si="27">O39-P39</f>
+        <f t="shared" ref="Q39:Q43" si="26">O39-P39</f>
         <v>1174.5</v>
       </c>
       <c r="R39" s="35">
@@ -5710,7 +5706,7 @@
         <v>82694.999999999985</v>
       </c>
       <c r="S39" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1174.5</v>
       </c>
       <c r="T39" s="50"/>
@@ -5720,7 +5716,7 @@
         <v>73251</v>
       </c>
       <c r="W39" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-9443.9999999999854</v>
       </c>
       <c r="X39" s="80">
@@ -5737,7 +5733,7 @@
         <v>61</v>
       </c>
       <c r="C40" s="79">
-        <f>SUM(D40:J40)</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="D40" s="93">
@@ -5776,12 +5772,12 @@
         <v>3</v>
       </c>
       <c r="O40" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1779.7499999999998</v>
       </c>
       <c r="P40" s="34"/>
       <c r="Q40" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1779.7499999999998</v>
       </c>
       <c r="R40" s="35">
@@ -5789,7 +5785,7 @@
         <v>84474.749999999985</v>
       </c>
       <c r="S40" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1779.7499999999998</v>
       </c>
       <c r="T40" s="50">
@@ -5803,7 +5799,7 @@
         <v>78566.25</v>
       </c>
       <c r="W40" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-5908.4999999999854</v>
       </c>
       <c r="X40" s="80"/>
@@ -5822,7 +5818,7 @@
         <v>62</v>
       </c>
       <c r="C41" s="79">
-        <f t="shared" ref="C41" si="28">SUM(D41:J41)</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="D41" s="93">
@@ -5861,14 +5857,14 @@
         <v>5</v>
       </c>
       <c r="O41" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2966.2499999999995</v>
       </c>
       <c r="P41" s="34">
         <v>12</v>
       </c>
       <c r="Q41" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="R41" s="35">
@@ -5876,7 +5872,7 @@
         <v>87428.999999999985</v>
       </c>
       <c r="S41" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="T41" s="50"/>
@@ -5886,7 +5882,7 @@
         <v>78566.25</v>
       </c>
       <c r="W41" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-8862.7499999999854</v>
       </c>
       <c r="X41" s="80"/>
@@ -5901,6 +5897,7 @@
         <v>63</v>
       </c>
       <c r="C42" s="79">
+        <f t="shared" ref="C42:C48" si="27">SUM(D42:J42)</f>
         <v>30</v>
       </c>
       <c r="D42" s="93">
@@ -5939,14 +5936,14 @@
         <v>4</v>
       </c>
       <c r="O42" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2373</v>
       </c>
       <c r="P42" s="34">
         <v>12</v>
       </c>
       <c r="Q42" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2361</v>
       </c>
       <c r="R42" s="35">
@@ -5954,7 +5951,7 @@
         <v>89789.999999999985</v>
       </c>
       <c r="S42" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2361</v>
       </c>
       <c r="T42" s="50"/>
@@ -5964,7 +5961,7 @@
         <v>78566.25</v>
       </c>
       <c r="W42" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-11223.749999999985</v>
       </c>
       <c r="X42" s="80"/>
@@ -5979,6 +5976,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="79">
+        <f t="shared" si="27"/>
         <v>37.5</v>
       </c>
       <c r="D43" s="93">
@@ -6007,7 +6005,7 @@
       </c>
       <c r="L43" s="31">
         <f>COUNTIF($Y$5:AC3039,K43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3">
         <v>43070</v>
@@ -6017,14 +6015,14 @@
         <v>5</v>
       </c>
       <c r="O43" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2966.2499999999995</v>
       </c>
       <c r="P43" s="34">
         <v>12</v>
       </c>
       <c r="Q43" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="R43" s="35">
@@ -6032,8 +6030,8 @@
         <v>92744.249999999985</v>
       </c>
       <c r="S43" s="101">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2954.2499999999995</v>
       </c>
       <c r="T43" s="50">
         <v>43056</v>
@@ -6046,7 +6044,7 @@
         <v>81520.5</v>
       </c>
       <c r="W43" s="49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-11223.749999999985</v>
       </c>
       <c r="X43" s="80"/>
@@ -6063,6 +6061,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="79">
+        <f t="shared" si="27"/>
         <v>30</v>
       </c>
       <c r="D44" s="93">
@@ -6091,24 +6090,24 @@
       </c>
       <c r="L44" s="31">
         <f>COUNTIF($Y$5:AC3040,K44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="3">
         <v>43084</v>
       </c>
       <c r="N44" s="39">
-        <f t="shared" ref="N44:N50" si="29">C44/7.5</f>
+        <f t="shared" ref="N44:N50" si="28">C44/7.5</f>
         <v>4</v>
       </c>
       <c r="O44" s="33">
-        <f t="shared" ref="O44:O50" si="30">(C44*70)*1.13</f>
+        <f t="shared" ref="O44:O50" si="29">(C44*70)*1.13</f>
         <v>2373</v>
       </c>
       <c r="P44" s="34">
         <v>12</v>
       </c>
       <c r="Q44" s="41">
-        <f t="shared" ref="Q44:Q50" si="31">O44-P44</f>
+        <f t="shared" ref="Q44:Q50" si="30">O44-P44</f>
         <v>2361</v>
       </c>
       <c r="R44" s="35">
@@ -6116,8 +6115,8 @@
         <v>95105.249999999985</v>
       </c>
       <c r="S44" s="101">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2361</v>
       </c>
       <c r="T44" s="50"/>
       <c r="U44" s="48"/>
@@ -6126,7 +6125,7 @@
         <v>81520.5</v>
       </c>
       <c r="W44" s="49">
-        <f t="shared" ref="W44:W50" si="32">V44-R44</f>
+        <f t="shared" ref="W44:W54" si="31">V44-R44</f>
         <v>-13584.749999999985</v>
       </c>
       <c r="X44" s="80"/>
@@ -6138,10 +6137,10 @@
     </row>
     <row r="45" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C45" s="79">
-        <f t="shared" ref="C45" si="33">SUM(D45:J45)</f>
+        <f t="shared" si="27"/>
         <v>7.5</v>
       </c>
       <c r="D45" s="93">
@@ -6170,22 +6169,22 @@
       </c>
       <c r="L45" s="31">
         <f>COUNTIF($Y$5:AC3041,K45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="3">
         <v>43084</v>
       </c>
       <c r="N45" s="39">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="33">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="33">
-        <f t="shared" si="30"/>
         <v>593.25</v>
       </c>
       <c r="P45" s="34"/>
       <c r="Q45" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>593.25</v>
       </c>
       <c r="R45" s="35">
@@ -6193,8 +6192,8 @@
         <v>95698.499999999985</v>
       </c>
       <c r="S45" s="101">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>593.25</v>
       </c>
       <c r="T45" s="50">
         <v>43070</v>
@@ -6207,7 +6206,7 @@
         <v>89790</v>
       </c>
       <c r="W45" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-5908.4999999999854</v>
       </c>
       <c r="X45" s="80"/>
@@ -6227,9 +6226,10 @@
     </row>
     <row r="46" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C46" s="79">
+        <f t="shared" si="27"/>
         <v>37.5</v>
       </c>
       <c r="D46" s="93">
@@ -6258,24 +6258,24 @@
       </c>
       <c r="L46" s="31">
         <f>COUNTIF($Y$5:AC3042,K46)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="3">
         <v>43084</v>
       </c>
       <c r="N46" s="39">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="O46" s="33">
         <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="O46" s="33">
-        <f t="shared" si="30"/>
         <v>2966.2499999999995</v>
       </c>
       <c r="P46" s="34">
         <v>12</v>
       </c>
       <c r="Q46" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="R46" s="35">
@@ -6283,8 +6283,8 @@
         <v>98652.749999999985</v>
       </c>
       <c r="S46" s="101">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2954.2499999999995</v>
       </c>
       <c r="T46" s="50"/>
       <c r="U46" s="48"/>
@@ -6293,7 +6293,7 @@
         <v>89790</v>
       </c>
       <c r="W46" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-8862.7499999999854</v>
       </c>
       <c r="X46" s="80"/>
@@ -6305,9 +6305,10 @@
     </row>
     <row r="47" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C47" s="79">
+        <f t="shared" si="27"/>
         <v>37.5</v>
       </c>
       <c r="D47" s="93">
@@ -6336,24 +6337,24 @@
       </c>
       <c r="L47" s="31">
         <f>COUNTIF($Y$5:AC3043,K47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="3">
         <v>43098</v>
       </c>
       <c r="N47" s="39">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="O47" s="33">
         <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="O47" s="33">
-        <f t="shared" si="30"/>
         <v>2966.2499999999995</v>
       </c>
       <c r="P47" s="34">
         <v>12</v>
       </c>
       <c r="Q47" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="R47" s="35">
@@ -6361,8 +6362,8 @@
         <v>101606.99999999999</v>
       </c>
       <c r="S47" s="101">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2954.2499999999995</v>
       </c>
       <c r="T47" s="50"/>
       <c r="U47" s="48"/>
@@ -6371,7 +6372,7 @@
         <v>89790</v>
       </c>
       <c r="W47" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-11816.999999999985</v>
       </c>
       <c r="X47" s="80"/>
@@ -6383,9 +6384,10 @@
     </row>
     <row r="48" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C48" s="79">
+        <f t="shared" si="27"/>
         <v>37.5</v>
       </c>
       <c r="D48" s="93">
@@ -6420,18 +6422,18 @@
         <v>43098</v>
       </c>
       <c r="N48" s="39">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="O48" s="33">
         <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="O48" s="33">
-        <f t="shared" si="30"/>
         <v>2966.2499999999995</v>
       </c>
       <c r="P48" s="34">
         <v>12</v>
       </c>
       <c r="Q48" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2954.2499999999995</v>
       </c>
       <c r="R48" s="35">
@@ -6439,7 +6441,7 @@
         <v>104561.24999999999</v>
       </c>
       <c r="S48" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T48" s="50"/>
@@ -6449,7 +6451,7 @@
         <v>89790</v>
       </c>
       <c r="W48" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-14771.249999999985</v>
       </c>
       <c r="X48" s="80"/>
@@ -6461,16 +6463,33 @@
     </row>
     <row r="49" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="93"/>
+        <v>76</v>
+      </c>
+      <c r="C49" s="79">
+        <f>SUM(D49:J49)</f>
+        <v>22.5</v>
+      </c>
+      <c r="D49" s="93">
+        <v>0</v>
+      </c>
+      <c r="E49" s="79">
+        <v>0</v>
+      </c>
+      <c r="F49" s="79">
+        <v>0</v>
+      </c>
+      <c r="G49" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="H49" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="I49" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="J49" s="93">
+        <v>0</v>
+      </c>
       <c r="K49" s="30">
         <v>353</v>
       </c>
@@ -6482,55 +6501,88 @@
         <v>43118</v>
       </c>
       <c r="N49" s="39">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="O49" s="33">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="33">
+        <v>1779.7499999999998</v>
+      </c>
+      <c r="P49" s="34">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="41">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="41">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1767.7499999999998</v>
       </c>
       <c r="R49" s="35">
         <f>SUM($Q$5:Q49)</f>
-        <v>104561.24999999999</v>
+        <v>106328.99999999999</v>
       </c>
       <c r="S49" s="101">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="50"/>
-      <c r="U49" s="48"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="50">
+        <v>43098</v>
+      </c>
+      <c r="U49" s="48">
+        <v>11817</v>
+      </c>
       <c r="V49" s="51">
         <f>SUM($U$5:U49)</f>
-        <v>89790</v>
+        <v>101607</v>
       </c>
       <c r="W49" s="49">
-        <f t="shared" si="32"/>
-        <v>-14771.249999999985</v>
+        <f t="shared" si="31"/>
+        <v>-4721.9999999999854</v>
       </c>
       <c r="X49" s="80"/>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="97"/>
-      <c r="AA49" s="97"/>
-      <c r="AB49" s="97"/>
-      <c r="AC49" s="97"/>
+      <c r="Y49" s="97">
+        <v>347</v>
+      </c>
+      <c r="Z49" s="97">
+        <v>348</v>
+      </c>
+      <c r="AA49" s="97">
+        <v>349</v>
+      </c>
+      <c r="AB49" s="97">
+        <v>350</v>
+      </c>
+      <c r="AC49" s="97">
+        <v>351</v>
+      </c>
     </row>
     <row r="50" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="93"/>
+      <c r="B50" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="131">
+        <f t="shared" ref="C50:C52" si="32">SUM(D50:J50)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="131">
+        <v>0</v>
+      </c>
+      <c r="E50" s="131">
+        <v>0</v>
+      </c>
+      <c r="F50" s="131">
+        <v>0</v>
+      </c>
+      <c r="G50" s="131">
+        <v>0</v>
+      </c>
+      <c r="H50" s="131">
+        <v>0</v>
+      </c>
+      <c r="I50" s="131">
+        <v>0</v>
+      </c>
+      <c r="J50" s="131">
+        <v>0</v>
+      </c>
       <c r="K50" s="30">
         <v>354</v>
       </c>
@@ -6542,35 +6594,37 @@
         <v>43118</v>
       </c>
       <c r="N50" s="39">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="33">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="33">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P50" s="34"/>
       <c r="Q50" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R50" s="35">
         <f>SUM($Q$5:Q50)</f>
-        <v>104561.24999999999</v>
+        <v>106328.99999999999</v>
       </c>
       <c r="S50" s="101">
-        <f t="shared" ref="S50" si="34">Q50*L50</f>
+        <f t="shared" ref="S50" si="33">Q50*L50</f>
         <v>0</v>
       </c>
       <c r="T50" s="50"/>
-      <c r="U50" s="48"/>
+      <c r="U50" s="48">
+        <v>0</v>
+      </c>
       <c r="V50" s="51">
         <f>SUM($U$5:U50)</f>
-        <v>89790</v>
+        <v>101607</v>
       </c>
       <c r="W50" s="49">
-        <f t="shared" si="32"/>
-        <v>-14771.249999999985</v>
+        <f t="shared" si="31"/>
+        <v>-4721.9999999999854</v>
       </c>
       <c r="X50" s="80"/>
       <c r="Y50" s="97"/>
@@ -6580,15 +6634,34 @@
       <c r="AC50" s="97"/>
     </row>
     <row r="51" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="93"/>
+      <c r="B51" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="79">
+        <f t="shared" si="32"/>
+        <v>30</v>
+      </c>
+      <c r="D51" s="93">
+        <v>0</v>
+      </c>
+      <c r="E51" s="79">
+        <v>0</v>
+      </c>
+      <c r="F51" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="G51" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="H51" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="I51" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="J51" s="93">
+        <v>0</v>
+      </c>
       <c r="K51" s="30">
         <v>355</v>
       </c>
@@ -6596,37 +6669,43 @@
         <f>COUNTIF($Y$5:AC3047,K51)</f>
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="3">
+        <v>43118</v>
+      </c>
       <c r="N51" s="39">
-        <f t="shared" ref="N51:N55" si="35">C51/7.5</f>
-        <v>0</v>
+        <f t="shared" ref="N51:N52" si="34">C51/7.5</f>
+        <v>4</v>
       </c>
       <c r="O51" s="33">
-        <f t="shared" ref="O51:O55" si="36">(C51*70)*1.13</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="34"/>
+        <f t="shared" ref="O51" si="35">(C51*70)*1.13</f>
+        <v>2373</v>
+      </c>
+      <c r="P51" s="34">
+        <v>12</v>
+      </c>
       <c r="Q51" s="41">
-        <f t="shared" ref="Q51:Q55" si="37">O51-P51</f>
-        <v>0</v>
+        <f t="shared" ref="Q51" si="36">O51-P51</f>
+        <v>2361</v>
       </c>
       <c r="R51" s="35">
         <f>SUM($Q$5:Q51)</f>
-        <v>104561.24999999999</v>
+        <v>108689.99999999999</v>
       </c>
       <c r="S51" s="101">
-        <f t="shared" ref="S51:S55" si="38">Q51*L51</f>
+        <f t="shared" ref="S51" si="37">Q51*L51</f>
         <v>0</v>
       </c>
       <c r="T51" s="50"/>
-      <c r="U51" s="48"/>
+      <c r="U51" s="48">
+        <v>0</v>
+      </c>
       <c r="V51" s="51">
         <f>SUM($U$5:U51)</f>
-        <v>89790</v>
+        <v>101607</v>
       </c>
       <c r="W51" s="49">
-        <f t="shared" ref="W51:W55" si="39">V51-R51</f>
-        <v>-14771.249999999985</v>
+        <f t="shared" si="31"/>
+        <v>-7082.9999999999854</v>
       </c>
       <c r="X51" s="80"/>
       <c r="Y51" s="97"/>
@@ -6636,28 +6715,79 @@
       <c r="AC51" s="97"/>
     </row>
     <row r="52" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="22"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="101"/>
+      <c r="B52" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="79">
+        <f t="shared" si="32"/>
+        <v>37.5</v>
+      </c>
+      <c r="D52" s="93">
+        <v>0</v>
+      </c>
+      <c r="E52" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="F52" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="G52" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="H52" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="I52" s="79">
+        <v>7.5</v>
+      </c>
+      <c r="J52" s="93">
+        <v>0</v>
+      </c>
+      <c r="K52" s="30">
+        <v>356</v>
+      </c>
+      <c r="L52" s="31">
+        <f>COUNTIF($Y$5:AC3048,K52)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>43132</v>
+      </c>
+      <c r="N52" s="39">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="O52" s="33">
+        <f t="shared" ref="O52" si="38">(C52*70)*1.13</f>
+        <v>2966.2499999999995</v>
+      </c>
+      <c r="P52" s="34">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="41">
+        <f t="shared" ref="Q52" si="39">O52-P52</f>
+        <v>2954.2499999999995</v>
+      </c>
+      <c r="R52" s="35">
+        <f>SUM($Q$5:Q52)</f>
+        <v>111644.24999999999</v>
+      </c>
+      <c r="S52" s="101">
+        <f t="shared" ref="S52" si="40">Q52*L52</f>
+        <v>0</v>
+      </c>
       <c r="T52" s="50"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="51"/>
-      <c r="W52" s="49"/>
+      <c r="U52" s="48">
+        <v>0</v>
+      </c>
+      <c r="V52" s="51">
+        <f>SUM($U$5:U52)</f>
+        <v>101607</v>
+      </c>
+      <c r="W52" s="49">
+        <f t="shared" si="31"/>
+        <v>-10037.249999999985</v>
+      </c>
       <c r="X52" s="80"/>
       <c r="Y52" s="97"/>
       <c r="Z52" s="97"/>
@@ -6679,15 +6809,34 @@
       <c r="L53" s="31"/>
       <c r="M53" s="3"/>
       <c r="N53" s="39"/>
-      <c r="O53" s="33"/>
+      <c r="O53" s="33">
+        <f t="shared" ref="O53:O54" si="41">(C53*70)*1.13</f>
+        <v>0</v>
+      </c>
       <c r="P53" s="34"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="35"/>
+      <c r="Q53" s="41">
+        <f t="shared" ref="Q53:Q54" si="42">O53-P53</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="35">
+        <f>SUM($Q$5:Q53)</f>
+        <v>111644.24999999999</v>
+      </c>
       <c r="S53" s="101"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="49"/>
+      <c r="T53" s="50">
+        <v>43118</v>
+      </c>
+      <c r="U53" s="48">
+        <v>0</v>
+      </c>
+      <c r="V53" s="51">
+        <f>SUM($U$5:U53)</f>
+        <v>101607</v>
+      </c>
+      <c r="W53" s="49">
+        <f t="shared" si="31"/>
+        <v>-10037.249999999985</v>
+      </c>
       <c r="X53" s="80"/>
       <c r="Y53" s="97"/>
       <c r="Z53" s="97"/>
@@ -6709,15 +6858,34 @@
       <c r="L54" s="31"/>
       <c r="M54" s="3"/>
       <c r="N54" s="39"/>
-      <c r="O54" s="33"/>
+      <c r="O54" s="33">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
       <c r="P54" s="34"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="35"/>
+      <c r="Q54" s="41">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="35">
+        <f>SUM($Q$5:Q54)</f>
+        <v>111644.24999999999</v>
+      </c>
       <c r="S54" s="101"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="51"/>
-      <c r="W54" s="49"/>
+      <c r="T54" s="50">
+        <v>43132</v>
+      </c>
+      <c r="U54" s="48">
+        <v>0</v>
+      </c>
+      <c r="V54" s="51">
+        <f>SUM($U$5:U54)</f>
+        <v>101607</v>
+      </c>
+      <c r="W54" s="49">
+        <f t="shared" si="31"/>
+        <v>-10037.249999999985</v>
+      </c>
       <c r="X54" s="80"/>
       <c r="Y54" s="97"/>
       <c r="Z54" s="97"/>
@@ -6755,6 +6923,14 @@
       <c r="AB55" s="97"/>
       <c r="AC55" s="97"/>
     </row>
+    <row r="57" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T57" s="50">
+        <v>43132</v>
+      </c>
+      <c r="U57" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="Y1:AC1"/>
@@ -6763,49 +6939,49 @@
     <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <conditionalFormatting sqref="K2 L3:M5 M28 M30:M33 M6:M25 M35 L56:M1048576 M37 L6:L37">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:M38">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:M55">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="V15 C39" formulaRange="1"/>
+    <ignoredError sqref="V15" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -6822,8 +6998,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6847,8 +7023,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6872,8 +7048,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6897,8 +7073,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6922,8 +7098,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6947,8 +7123,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6972,8 +7148,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6997,8 +7173,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7022,8 +7198,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7047,8 +7223,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7072,8 +7248,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7097,8 +7273,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7122,8 +7298,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7147,8 +7323,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7172,8 +7348,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7197,8 +7373,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7251,147 +7427,147 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="103" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="113">
+      <c r="C3" s="103">
         <v>43070</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="113">
+      <c r="C4" s="103">
         <v>43071</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="113">
+      <c r="C5" s="103">
         <v>43072</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="113">
+      <c r="C6" s="103">
         <v>43073</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="113">
+      <c r="C7" s="103">
         <v>43074</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="113">
+      <c r="C8" s="103">
         <v>43075</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="113">
+      <c r="C9" s="103">
         <v>43076</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="113">
+      <c r="C10" s="103">
         <v>43077</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="113">
+      <c r="C11" s="103">
         <v>43078</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="113">
+      <c r="C12" s="103">
         <v>43079</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="113">
+      <c r="C13" s="103">
         <v>43080</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="113">
+      <c r="C14" s="103">
         <v>43081</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="113">
+      <c r="C15" s="103">
         <v>43082</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="113">
+      <c r="C16" s="103">
         <v>43083</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="113">
+      <c r="C17" s="103">
         <v>43084</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="113">
+      <c r="C18" s="103">
         <v>43085</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="118">
+      <c r="B19" s="108">
         <v>352</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="103">
         <v>43086</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="118"/>
-      <c r="C20" s="113">
+      <c r="B20" s="108"/>
+      <c r="C20" s="103">
         <v>43087</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="118"/>
-      <c r="C21" s="113">
+      <c r="B21" s="108"/>
+      <c r="C21" s="103">
         <v>43088</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="118"/>
-      <c r="C22" s="113">
+      <c r="B22" s="108"/>
+      <c r="C22" s="103">
         <v>43089</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="118"/>
-      <c r="C23" s="113">
+      <c r="B23" s="108"/>
+      <c r="C23" s="103">
         <v>43090</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="118"/>
-      <c r="C24" s="113">
+      <c r="B24" s="108"/>
+      <c r="C24" s="103">
         <v>43091</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="116">
+        <v>68</v>
+      </c>
+      <c r="B25" s="108"/>
+      <c r="C25" s="106">
         <v>43092</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="119">
+      <c r="B26" s="109">
         <v>353</v>
       </c>
-      <c r="C26" s="114">
+      <c r="C26" s="104">
         <v>43093</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="119"/>
-      <c r="C27" s="114">
+      <c r="B27" s="109"/>
+      <c r="C27" s="104">
         <v>43094</v>
       </c>
       <c r="D27">
@@ -7399,8 +7575,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="119"/>
-      <c r="C28" s="114">
+      <c r="B28" s="109"/>
+      <c r="C28" s="104">
         <v>43095</v>
       </c>
       <c r="D28">
@@ -7408,8 +7584,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="119"/>
-      <c r="C29" s="113">
+      <c r="B29" s="109"/>
+      <c r="C29" s="103">
         <v>43096</v>
       </c>
       <c r="D29">
@@ -7421,8 +7597,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="119"/>
-      <c r="C30" s="113">
+      <c r="B30" s="109"/>
+      <c r="C30" s="103">
         <v>43097</v>
       </c>
       <c r="D30">
@@ -7434,8 +7610,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="119"/>
-      <c r="C31" s="113">
+      <c r="B31" s="109"/>
+      <c r="C31" s="103">
         <v>43098</v>
       </c>
       <c r="D31">
@@ -7451,8 +7627,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="119"/>
-      <c r="C32" s="114">
+      <c r="B32" s="109"/>
+      <c r="C32" s="104">
         <v>43099</v>
       </c>
       <c r="D32">
@@ -7464,10 +7640,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="122">
+      <c r="B33" s="112">
         <v>354</v>
       </c>
-      <c r="C33" s="114">
+      <c r="C33" s="104">
         <v>43100</v>
       </c>
       <c r="D33">
@@ -7479,10 +7655,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="118">
+      <c r="B34" s="108">
         <v>355</v>
       </c>
-      <c r="C34" s="115">
+      <c r="C34" s="105">
         <v>43101</v>
       </c>
       <c r="D34">
@@ -7494,8 +7670,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="118"/>
-      <c r="C35" s="113">
+      <c r="B35" s="108"/>
+      <c r="C35" s="103">
         <v>43102</v>
       </c>
       <c r="D35">
@@ -7507,8 +7683,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="118"/>
-      <c r="C36" s="113">
+      <c r="B36" s="108"/>
+      <c r="C36" s="103">
         <v>43103</v>
       </c>
       <c r="D36">
@@ -7520,8 +7696,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="118"/>
-      <c r="C37" s="113">
+      <c r="B37" s="108"/>
+      <c r="C37" s="103">
         <v>43104</v>
       </c>
       <c r="D37">
@@ -7533,8 +7709,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="118"/>
-      <c r="C38" s="113">
+      <c r="B38" s="108"/>
+      <c r="C38" s="103">
         <v>43105</v>
       </c>
       <c r="D38">
@@ -7551,12 +7727,12 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="114">
+        <v>68</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="104">
         <v>43106</v>
       </c>
       <c r="D39">
@@ -7568,10 +7744,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="121">
+      <c r="B40" s="111">
         <v>356</v>
       </c>
-      <c r="C40" s="114">
+      <c r="C40" s="104">
         <v>43107</v>
       </c>
       <c r="D40">
@@ -7583,8 +7759,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="120"/>
-      <c r="C41" s="113">
+      <c r="B41" s="110"/>
+      <c r="C41" s="103">
         <v>43108</v>
       </c>
       <c r="D41">
@@ -7596,8 +7772,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="120"/>
-      <c r="C42" s="113">
+      <c r="B42" s="110"/>
+      <c r="C42" s="103">
         <v>43109</v>
       </c>
       <c r="D42">
@@ -7609,8 +7785,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="120"/>
-      <c r="C43" s="113">
+      <c r="B43" s="110"/>
+      <c r="C43" s="103">
         <v>43110</v>
       </c>
       <c r="D43">
@@ -7622,8 +7798,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="120"/>
-      <c r="C44" s="113">
+      <c r="B44" s="110"/>
+      <c r="C44" s="103">
         <v>43111</v>
       </c>
       <c r="D44">
@@ -7635,8 +7811,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="120"/>
-      <c r="C45" s="113">
+      <c r="B45" s="110"/>
+      <c r="C45" s="103">
         <v>43112</v>
       </c>
       <c r="D45">
@@ -7652,130 +7828,130 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="120"/>
-      <c r="C46" s="114">
+      <c r="B46" s="110"/>
+      <c r="C46" s="104">
         <v>43113</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="114">
+      <c r="C47" s="104">
         <v>43114</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="113">
+      <c r="C48" s="103">
         <v>43115</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="113">
+      <c r="C49" s="103">
         <v>43116</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="113">
+      <c r="C50" s="103">
         <v>43117</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="113">
+      <c r="C51" s="103">
         <v>43118</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="117">
+        <v>70</v>
+      </c>
+      <c r="C52" s="107">
         <v>43119</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="113">
+        <v>71</v>
+      </c>
+      <c r="C53" s="103">
         <v>43120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="113">
+      <c r="C54" s="103">
         <v>43121</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="113">
+      <c r="C55" s="103">
         <v>43122</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="113">
+      <c r="C56" s="103">
         <v>43123</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="113">
+      <c r="C57" s="103">
         <v>43124</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="113">
+      <c r="C58" s="103">
         <v>43125</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="113">
+      <c r="C59" s="103">
         <v>43126</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="113">
+      <c r="C60" s="103">
         <v>43127</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="113">
+      <c r="C61" s="103">
         <v>43128</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="113">
+      <c r="C62" s="103">
         <v>43129</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="113">
+      <c r="C63" s="103">
         <v>43130</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="113">
+      <c r="C64" s="103">
         <v>43131</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="113">
+      <c r="C65" s="103">
         <v>43132</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="113">
+        <v>70</v>
+      </c>
+      <c r="C66" s="103">
         <v>43133</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="113">
+      <c r="C67" s="103">
         <v>43134</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="113">
+      <c r="C68" s="103">
         <v>43135</v>
       </c>
     </row>
@@ -7790,7 +7966,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:AC7"/>
     </sheetView>
   </sheetViews>
@@ -7836,11 +8012,11 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
       <c r="J1" s="86"/>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
       <c r="N1" s="23" t="s">
         <v>19</v>
       </c>
@@ -7874,13 +8050,13 @@
       <c r="X1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="107" t="s">
+      <c r="Y1" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="109"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="126"/>
     </row>
     <row r="2" spans="2:29" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
@@ -7933,11 +8109,11 @@
         <v>2361</v>
       </c>
       <c r="X2" s="61"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="112"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="129"/>
     </row>
     <row r="3" spans="2:29" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -7994,41 +8170,41 @@
       <c r="AC3" s="76"/>
     </row>
     <row r="4" spans="2:29" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="124">
+      <c r="C4" s="114">
         <v>37.5</v>
       </c>
-      <c r="D4" s="125">
-        <v>0</v>
-      </c>
-      <c r="E4" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="F4" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="G4" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="H4" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="I4" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="J4" s="125">
-        <v>0</v>
-      </c>
-      <c r="K4" s="126">
+      <c r="D4" s="115">
+        <v>0</v>
+      </c>
+      <c r="E4" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="G4" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="I4" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="J4" s="115">
+        <v>0</v>
+      </c>
+      <c r="K4" s="116">
         <v>347</v>
       </c>
-      <c r="L4" s="127">
+      <c r="L4" s="117">
         <f>COUNTIF($Y$5:AC3000,K4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="128">
+      <c r="M4" s="118">
         <v>43070</v>
       </c>
       <c r="N4" s="39">
@@ -8078,41 +8254,41 @@
       <c r="AC4" s="102"/>
     </row>
     <row r="5" spans="2:29" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C5" s="114">
         <v>30</v>
       </c>
-      <c r="D5" s="125">
-        <v>0</v>
-      </c>
-      <c r="E5" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="F5" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="G5" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="H5" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="I5" s="124">
-        <v>0</v>
-      </c>
-      <c r="J5" s="125">
-        <v>0</v>
-      </c>
-      <c r="K5" s="126">
+      <c r="D5" s="115">
+        <v>0</v>
+      </c>
+      <c r="E5" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="H5" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="I5" s="114">
+        <v>0</v>
+      </c>
+      <c r="J5" s="115">
+        <v>0</v>
+      </c>
+      <c r="K5" s="116">
         <v>348</v>
       </c>
-      <c r="L5" s="127">
+      <c r="L5" s="117">
         <f>COUNTIF($Y$5:AC3001,K5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="128">
+      <c r="M5" s="118">
         <v>43084</v>
       </c>
       <c r="N5" s="39">
@@ -8156,42 +8332,42 @@
       <c r="AC5" s="102"/>
     </row>
     <row r="6" spans="2:29" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="124">
+      <c r="C6" s="114">
         <f t="shared" ref="C6" si="5">SUM(D6:J6)</f>
         <v>7.5</v>
       </c>
-      <c r="D6" s="125">
-        <v>0</v>
-      </c>
-      <c r="E6" s="129">
-        <v>0</v>
-      </c>
-      <c r="F6" s="124">
-        <v>0</v>
-      </c>
-      <c r="G6" s="124">
-        <v>0</v>
-      </c>
-      <c r="H6" s="124">
-        <v>0</v>
-      </c>
-      <c r="I6" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="J6" s="125">
-        <v>0</v>
-      </c>
-      <c r="K6" s="126">
+      <c r="D6" s="115">
+        <v>0</v>
+      </c>
+      <c r="E6" s="119">
+        <v>0</v>
+      </c>
+      <c r="F6" s="114">
+        <v>0</v>
+      </c>
+      <c r="G6" s="114">
+        <v>0</v>
+      </c>
+      <c r="H6" s="114">
+        <v>0</v>
+      </c>
+      <c r="I6" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="J6" s="115">
+        <v>0</v>
+      </c>
+      <c r="K6" s="116">
         <v>349</v>
       </c>
-      <c r="L6" s="127">
+      <c r="L6" s="117">
         <f>COUNTIF($Y$5:AC3002,K6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="128">
+      <c r="M6" s="118">
         <v>43084</v>
       </c>
       <c r="N6" s="39">
@@ -8245,41 +8421,41 @@
       <c r="AC6" s="102"/>
     </row>
     <row r="7" spans="2:29" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="114">
         <v>37.5</v>
       </c>
-      <c r="D7" s="125">
-        <v>0</v>
-      </c>
-      <c r="E7" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="F7" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="G7" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="H7" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="I7" s="124">
-        <v>7.5</v>
-      </c>
-      <c r="J7" s="125">
-        <v>0</v>
-      </c>
-      <c r="K7" s="126">
+      <c r="D7" s="115">
+        <v>0</v>
+      </c>
+      <c r="E7" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="G7" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="H7" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="I7" s="114">
+        <v>7.5</v>
+      </c>
+      <c r="J7" s="115">
+        <v>0</v>
+      </c>
+      <c r="K7" s="116">
         <v>350</v>
       </c>
-      <c r="L7" s="127">
+      <c r="L7" s="117">
         <f>COUNTIF($Y$5:AC3003,K7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="128">
+      <c r="M7" s="118">
         <v>43084</v>
       </c>
       <c r="N7" s="39">
@@ -8334,7 +8510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Plainview Report_2017-11-24A.xlsx
+++ b/Plainview Report_2017-11-24A.xlsx
@@ -280,7 +280,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ ddd"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +499,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="46">
@@ -1017,7 +1024,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,6 +1351,12 @@
     <xf numFmtId="165" fontId="23" fillId="44" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="24" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1374,11 +1387,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="41" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="36" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="37" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="35" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="41" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1428,17 +1489,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2668,7 +2719,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O55" sqref="O55"/>
+      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2705,11 +2756,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
     </row>
     <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
@@ -2725,11 +2776,11 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="86"/>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
       <c r="N2" s="23" t="s">
         <v>19</v>
       </c>
@@ -2763,13 +2814,13 @@
       <c r="X2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="124" t="s">
+      <c r="Y2" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="126"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="128"/>
     </row>
     <row r="3" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
@@ -2815,11 +2866,11 @@
         <v>-10037.249999999985</v>
       </c>
       <c r="X3" s="61"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="131"/>
     </row>
     <row r="4" spans="2:29" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
@@ -6537,7 +6588,9 @@
         <f t="shared" si="31"/>
         <v>-4721.9999999999854</v>
       </c>
-      <c r="X49" s="80"/>
+      <c r="X49" s="80">
+        <v>20180105</v>
+      </c>
       <c r="Y49" s="97">
         <v>347</v>
       </c>
@@ -6555,32 +6608,32 @@
       </c>
     </row>
     <row r="50" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="131">
+      <c r="C50" s="121">
         <f t="shared" ref="C50:C52" si="32">SUM(D50:J50)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="131">
-        <v>0</v>
-      </c>
-      <c r="E50" s="131">
-        <v>0</v>
-      </c>
-      <c r="F50" s="131">
-        <v>0</v>
-      </c>
-      <c r="G50" s="131">
-        <v>0</v>
-      </c>
-      <c r="H50" s="131">
-        <v>0</v>
-      </c>
-      <c r="I50" s="131">
-        <v>0</v>
-      </c>
-      <c r="J50" s="131">
+      <c r="D50" s="121">
+        <v>0</v>
+      </c>
+      <c r="E50" s="121">
+        <v>0</v>
+      </c>
+      <c r="F50" s="121">
+        <v>0</v>
+      </c>
+      <c r="G50" s="121">
+        <v>0</v>
+      </c>
+      <c r="H50" s="121">
+        <v>0</v>
+      </c>
+      <c r="I50" s="121">
+        <v>0</v>
+      </c>
+      <c r="J50" s="121">
         <v>0</v>
       </c>
       <c r="K50" s="30">
@@ -6626,7 +6679,9 @@
         <f t="shared" si="31"/>
         <v>-4721.9999999999854</v>
       </c>
-      <c r="X50" s="80"/>
+      <c r="X50" s="80">
+        <v>20180105</v>
+      </c>
       <c r="Y50" s="97"/>
       <c r="Z50" s="97"/>
       <c r="AA50" s="97"/>
@@ -6707,93 +6762,97 @@
         <f t="shared" si="31"/>
         <v>-7082.9999999999854</v>
       </c>
-      <c r="X51" s="80"/>
+      <c r="X51" s="80">
+        <v>20180105</v>
+      </c>
       <c r="Y51" s="97"/>
       <c r="Z51" s="97"/>
       <c r="AA51" s="97"/>
       <c r="AB51" s="97"/>
       <c r="AC51" s="97"/>
     </row>
-    <row r="52" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="22" t="s">
+    <row r="52" spans="2:29" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="79">
+      <c r="C52" s="133">
         <f t="shared" si="32"/>
         <v>37.5</v>
       </c>
-      <c r="D52" s="93">
-        <v>0</v>
-      </c>
-      <c r="E52" s="79">
-        <v>7.5</v>
-      </c>
-      <c r="F52" s="79">
-        <v>7.5</v>
-      </c>
-      <c r="G52" s="79">
-        <v>7.5</v>
-      </c>
-      <c r="H52" s="79">
-        <v>7.5</v>
-      </c>
-      <c r="I52" s="79">
-        <v>7.5</v>
-      </c>
-      <c r="J52" s="93">
-        <v>0</v>
-      </c>
-      <c r="K52" s="30">
+      <c r="D52" s="133">
+        <v>0</v>
+      </c>
+      <c r="E52" s="133">
+        <v>7.5</v>
+      </c>
+      <c r="F52" s="133">
+        <v>7.5</v>
+      </c>
+      <c r="G52" s="133">
+        <v>7.5</v>
+      </c>
+      <c r="H52" s="133">
+        <v>7.5</v>
+      </c>
+      <c r="I52" s="133">
+        <v>7.5</v>
+      </c>
+      <c r="J52" s="133">
+        <v>0</v>
+      </c>
+      <c r="K52" s="134">
         <v>356</v>
       </c>
-      <c r="L52" s="31">
+      <c r="L52" s="135">
         <f>COUNTIF($Y$5:AC3048,K52)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="136">
         <v>43132</v>
       </c>
-      <c r="N52" s="39">
+      <c r="N52" s="137">
         <f t="shared" si="34"/>
         <v>5</v>
       </c>
-      <c r="O52" s="33">
+      <c r="O52" s="138">
         <f t="shared" ref="O52" si="38">(C52*70)*1.13</f>
         <v>2966.2499999999995</v>
       </c>
-      <c r="P52" s="34">
+      <c r="P52" s="139">
         <v>12</v>
       </c>
-      <c r="Q52" s="41">
+      <c r="Q52" s="140">
         <f t="shared" ref="Q52" si="39">O52-P52</f>
         <v>2954.2499999999995</v>
       </c>
-      <c r="R52" s="35">
+      <c r="R52" s="141">
         <f>SUM($Q$5:Q52)</f>
         <v>111644.24999999999</v>
       </c>
-      <c r="S52" s="101">
+      <c r="S52" s="142">
         <f t="shared" ref="S52" si="40">Q52*L52</f>
         <v>0</v>
       </c>
-      <c r="T52" s="50"/>
-      <c r="U52" s="48">
-        <v>0</v>
-      </c>
-      <c r="V52" s="51">
+      <c r="T52" s="143"/>
+      <c r="U52" s="144">
+        <v>0</v>
+      </c>
+      <c r="V52" s="145">
         <f>SUM($U$5:U52)</f>
         <v>101607</v>
       </c>
-      <c r="W52" s="49">
+      <c r="W52" s="146">
         <f t="shared" si="31"/>
         <v>-10037.249999999985</v>
       </c>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="97"/>
-      <c r="Z52" s="97"/>
-      <c r="AA52" s="97"/>
-      <c r="AB52" s="97"/>
-      <c r="AC52" s="97"/>
+      <c r="X52" s="147">
+        <v>20180119</v>
+      </c>
+      <c r="Y52" s="148"/>
+      <c r="Z52" s="148"/>
+      <c r="AA52" s="148"/>
+      <c r="AB52" s="148"/>
+      <c r="AC52" s="148"/>
     </row>
     <row r="53" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="22"/>
@@ -6939,42 +6998,42 @@
     <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <conditionalFormatting sqref="K2 L3:M5 M28 M30:M33 M6:M25 M35 L56:M1048576 M37 L6:L37">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:M38">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:M55">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6988,18 +7047,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId4" name="Control 17">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7008,23 +7067,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId4" name="Control 17"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId6" name="Control 16">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7033,12 +7092,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId6" name="Control 16"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId8" name="Control 15">
+        <control shapeId="1027" r:id="rId8" name="Control 3">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7058,12 +7117,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId8" name="Control 15"/>
+        <control shapeId="1027" r:id="rId8" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId10" name="Control 14">
+        <control shapeId="1028" r:id="rId10" name="Control 4">
           <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
@@ -7083,13 +7142,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId10" name="Control 14"/>
+        <control shapeId="1028" r:id="rId10" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId12" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId11">
+        <control shapeId="1029" r:id="rId12" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7108,13 +7167,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId12" name="Control 13"/>
+        <control shapeId="1029" r:id="rId12" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId13" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId14">
+        <control shapeId="1030" r:id="rId14" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7133,13 +7192,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId13" name="Control 12"/>
+        <control shapeId="1030" r:id="rId14" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId15" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId16">
+        <control shapeId="1031" r:id="rId15" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7158,13 +7217,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId15" name="Control 11"/>
+        <control shapeId="1031" r:id="rId15" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId17" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId18">
+        <control shapeId="1032" r:id="rId16" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7183,13 +7242,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId17" name="Control 10"/>
+        <control shapeId="1032" r:id="rId16" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId19" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId11">
+        <control shapeId="1033" r:id="rId17" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7208,13 +7267,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId19" name="Control 9"/>
+        <control shapeId="1033" r:id="rId17" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId20" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId11">
+        <control shapeId="1034" r:id="rId18" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7233,13 +7292,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId20" name="Control 8"/>
+        <control shapeId="1034" r:id="rId18" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId21" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId11">
+        <control shapeId="1035" r:id="rId20" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7258,13 +7317,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId21" name="Control 7"/>
+        <control shapeId="1035" r:id="rId20" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId22" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId11">
+        <control shapeId="1036" r:id="rId22" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7283,13 +7342,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId22" name="Control 6"/>
+        <control shapeId="1036" r:id="rId22" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId23" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId24">
+        <control shapeId="1037" r:id="rId24" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7308,13 +7367,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId23" name="Control 5"/>
+        <control shapeId="1037" r:id="rId24" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId25" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId26">
+        <control shapeId="1038" r:id="rId25" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7333,13 +7392,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId25" name="Control 4"/>
+        <control shapeId="1038" r:id="rId25" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId27" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId11">
+        <control shapeId="1039" r:id="rId26" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -7358,23 +7417,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId27" name="Control 3"/>
+        <control shapeId="1039" r:id="rId26" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId28" name="Control 2">
+        <control shapeId="1040" r:id="rId28" name="Control 16">
           <controlPr defaultSize="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7383,23 +7442,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId28" name="Control 2"/>
+        <control shapeId="1040" r:id="rId28" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId30" name="Control 1">
+        <control shapeId="1041" r:id="rId30" name="Control 17">
           <controlPr defaultSize="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -7408,7 +7467,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId30" name="Control 1"/>
+        <control shapeId="1041" r:id="rId30" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8012,11 +8071,11 @@
       <c r="H1" s="57"/>
       <c r="I1" s="57"/>
       <c r="J1" s="86"/>
-      <c r="K1" s="122" t="s">
+      <c r="K1" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
       <c r="N1" s="23" t="s">
         <v>19</v>
       </c>
@@ -8050,13 +8109,13 @@
       <c r="X1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="124" t="s">
+      <c r="Y1" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="128"/>
     </row>
     <row r="2" spans="2:29" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
@@ -8109,11 +8168,11 @@
         <v>2361</v>
       </c>
       <c r="X2" s="61"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="131"/>
     </row>
     <row r="3" spans="2:29" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -8505,12 +8564,12 @@
     <mergeCell ref="Y2:AC2"/>
   </mergeCells>
   <conditionalFormatting sqref="K1 L2:M3">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M7">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
